--- a/src/aot/libraries/Test-Summary.xlsx
+++ b/src/aot/libraries/Test-Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Core\LakshanF\CSharp\src\aot\libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D20D29-64AB-47FF-9551-AB3189EC8842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C56DB8E-3FA1-441A-A435-B842FA58053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F727E4F7-F56D-46A0-9713-68C9143055EC}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4DA7654-4A5F-446A-B203-AA712A3A5F26}" name="Table5" displayName="Table5" ref="A6:A8" totalsRowShown="0">
-  <autoFilter ref="A6:A8" xr:uid="{C4DA7654-4A5F-446A-B203-AA712A3A5F26}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4DA7654-4A5F-446A-B203-AA712A3A5F26}" name="Table5" displayName="Table5" ref="A6:A13" totalsRowShown="0">
+  <autoFilter ref="A6:A13" xr:uid="{C4DA7654-4A5F-446A-B203-AA712A3A5F26}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A315674A-342A-42F7-9DA1-B0DB2430D74B}" name="Skipped"/>
   </tableColumns>
@@ -569,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8B04380-6F91-467E-81B0-FE54E63C3FC0}" name="Table6" displayName="Table6" ref="C1:J140" totalsRowShown="0">
-  <autoFilter ref="C1:J140" xr:uid="{C8B04380-6F91-467E-81B0-FE54E63C3FC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8B04380-6F91-467E-81B0-FE54E63C3FC0}" name="Table6" displayName="Table6" ref="C1:J135" totalsRowShown="0">
+  <autoFilter ref="C1:J135" xr:uid="{C8B04380-6F91-467E-81B0-FE54E63C3FC0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A3126BBC-28E2-4233-92FB-3AFAD60971AC}" name="library"/>
     <tableColumn id="2" xr3:uid="{C8D6B1F1-FA36-4FAB-B12C-EDC8E7F86E42}" name="DidTestRun"/>
@@ -882,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07619F37-B3DE-4B05-8304-D685288AA58F}">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,6 +1131,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -1157,6 +1160,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -1183,6 +1189,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -1209,6 +1218,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
@@ -1235,6 +1247,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -4148,175 +4163,175 @@
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>22.05</v>
+        <v>34.42</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
+        <v>106</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
         <v>40</v>
       </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>38</v>
-      </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>34.42</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>36.590000000000003</v>
+        <v>24.22</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>171</v>
+        <v>2152</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>24.22</v>
+        <v>1854.21</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G128">
-        <v>2152</v>
+        <v>8220</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J128">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1854.21</v>
+        <v>43.31</v>
       </c>
       <c r="F129">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>8220</v>
+        <v>247</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J129">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>43.31</v>
+        <v>52.62</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>247</v>
+        <v>7664</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>52.62</v>
+        <v>31.07</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>7664</v>
+        <v>3418</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4325,30 +4340,30 @@
         <v>47</v>
       </c>
       <c r="J131">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
       </c>
       <c r="E132">
-        <v>31.07</v>
+        <v>107.89</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G132">
-        <v>3418</v>
+        <v>1637</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -4356,25 +4371,25 @@
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
       </c>
       <c r="E133">
-        <v>107.89</v>
+        <v>313.19</v>
       </c>
       <c r="F133">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="G133">
-        <v>1637</v>
+        <v>47817</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -4382,25 +4397,25 @@
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>22.21</v>
+        <v>59.78</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>74</v>
+        <v>2901</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -4408,158 +4423,28 @@
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
       </c>
       <c r="E135">
-        <v>313.19</v>
+        <v>62.57</v>
       </c>
       <c r="F135">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>47817</v>
+        <v>1382</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>76</v>
+        <v>635</v>
       </c>
       <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>148</v>
-      </c>
-      <c r="D136" t="b">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>59.66</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>185</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>154</v>
-      </c>
-      <c r="J136">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>149</v>
-      </c>
-      <c r="D137" t="b">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>22.47</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>191</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>184</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>150</v>
-      </c>
-      <c r="D138" t="b">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>59.78</v>
-      </c>
-      <c r="F138">
-        <v>2</v>
-      </c>
-      <c r="G138">
-        <v>2901</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>233</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>151</v>
-      </c>
-      <c r="D139" t="b">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>62.57</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>1382</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>635</v>
-      </c>
-      <c r="J139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>152</v>
-      </c>
-      <c r="D140" t="b">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>23.64</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>1881</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>1641</v>
-      </c>
-      <c r="J140">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
